--- a/media/zakitov_download_fiz.xlsx
+++ b/media/zakitov_download_fiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1087276E-448E-4B4D-BCC3-32BE5A62F373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB4E92-F240-6C45-B779-5F1DD5470D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="4700" windowWidth="27840" windowHeight="16740" xr2:uid="{B2142904-991E-8346-A7E2-EABB1F693248}"/>
+    <workbookView xWindow="2400" yWindow="1740" windowWidth="27840" windowHeight="16740" xr2:uid="{B2142904-991E-8346-A7E2-EABB1F693248}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve"> "Утверждаю"</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>АКТ сверки по физическим лицам за май 2024 г.</t>
-  </si>
-  <si>
-    <t>№</t>
   </si>
   <si>
     <t xml:space="preserve">Наименование </t>
@@ -127,7 +124,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,6 +219,13 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,10 +266,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -274,43 +278,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -319,9 +293,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -334,9 +306,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -347,7 +317,33 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -356,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,9 +390,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,80 +402,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -797,243 +782,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598249F4-8A28-8C4D-A2EB-87F46AFF7A4D}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H10" sqref="H10:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="29"/>
+    <col min="3" max="3" width="41.33203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="29" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="29"/>
+    <col min="8" max="8" width="14.1640625" style="46" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="29"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="11" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="1" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="19"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="1" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="11" t="s">
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17" t="s">
+      <c r="N5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="2"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24" t="s">
+      <c r="O6" s="14"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" customFormat="1" ht="23" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-    </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34"/>
-    </row>
-    <row r="9" spans="1:17" ht="89" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" customFormat="1" ht="88" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="45" t="s">
+      <c r="N9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="O9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="P9" s="40" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="10" spans="1:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/media/zakitov_download_fiz.xlsx
+++ b/media/zakitov_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB4E92-F240-6C45-B779-5F1DD5470D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C642DA2-0956-2146-ACD6-62C8907F241D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="1740" windowWidth="27840" windowHeight="16740" xr2:uid="{B2142904-991E-8346-A7E2-EABB1F693248}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve"> "Утверждаю"</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>АКТ сверки по физическим лицам за май 2024 г.</t>
   </si>
   <si>
     <t xml:space="preserve">Наименование </t>
@@ -352,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,18 +453,28 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -782,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598249F4-8A28-8C4D-A2EB-87F46AFF7A4D}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H1048576"/>
+      <selection activeCell="A10" sqref="A10:XFD460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -794,7 +801,7 @@
     <col min="3" max="3" width="41.33203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" style="29" customWidth="1"/>
     <col min="5" max="7" width="10.83203125" style="29"/>
-    <col min="8" max="8" width="14.1640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="42" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
@@ -900,10 +907,10 @@
       <c r="K5" s="21"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="42"/>
+      <c r="O5" s="43"/>
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -925,24 +932,22 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" customFormat="1" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
     </row>
     <row r="8" spans="1:16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
@@ -970,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>4</v>
@@ -987,7 +992,7 @@
       <c r="H9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="41" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="35" t="s">
@@ -997,10 +1002,10 @@
         <v>8</v>
       </c>
       <c r="L9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="37" t="s">
         <v>24</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>25</v>
       </c>
       <c r="N9" s="38" t="s">
         <v>16</v>
@@ -1012,59 +1017,1403 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
+    <row r="10" spans="1:16" s="47" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+    </row>
+    <row r="11" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+    </row>
+    <row r="12" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="48"/>
+    </row>
+    <row r="24" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="48"/>
+    </row>
+    <row r="34" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="48"/>
+    </row>
+    <row r="36" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="48"/>
+    </row>
+    <row r="37" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="48"/>
+    </row>
+    <row r="38" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="48"/>
+    </row>
+    <row r="39" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="48"/>
+    </row>
+    <row r="41" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="48"/>
+    </row>
+    <row r="42" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="48"/>
+    </row>
+    <row r="43" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="48"/>
+    </row>
+    <row r="44" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="48"/>
+    </row>
+    <row r="45" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="48"/>
+    </row>
+    <row r="46" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="48"/>
+    </row>
+    <row r="47" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="48"/>
+    </row>
+    <row r="48" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="48"/>
+    </row>
+    <row r="49" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="48"/>
+    </row>
+    <row r="50" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="48"/>
+    </row>
+    <row r="51" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="48"/>
+    </row>
+    <row r="52" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="48"/>
+    </row>
+    <row r="53" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="48"/>
+    </row>
+    <row r="54" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="48"/>
+    </row>
+    <row r="55" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="48"/>
+    </row>
+    <row r="56" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="48"/>
+    </row>
+    <row r="57" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="48"/>
+    </row>
+    <row r="58" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="48"/>
+    </row>
+    <row r="59" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="48"/>
+    </row>
+    <row r="60" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="48"/>
+    </row>
+    <row r="61" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="48"/>
+    </row>
+    <row r="62" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="48"/>
+    </row>
+    <row r="63" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="48"/>
+    </row>
+    <row r="64" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="48"/>
+    </row>
+    <row r="65" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="48"/>
+    </row>
+    <row r="66" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="48"/>
+    </row>
+    <row r="67" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="48"/>
+    </row>
+    <row r="68" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H68" s="48"/>
+    </row>
+    <row r="69" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="48"/>
+    </row>
+    <row r="70" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H70" s="48"/>
+    </row>
+    <row r="71" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H71" s="48"/>
+    </row>
+    <row r="72" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="48"/>
+    </row>
+    <row r="73" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="48"/>
+    </row>
+    <row r="74" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="48"/>
+    </row>
+    <row r="75" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="48"/>
+    </row>
+    <row r="76" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="48"/>
+    </row>
+    <row r="77" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="48"/>
+    </row>
+    <row r="78" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="48"/>
+    </row>
+    <row r="79" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H79" s="48"/>
+    </row>
+    <row r="80" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H80" s="48"/>
+    </row>
+    <row r="81" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H81" s="48"/>
+    </row>
+    <row r="82" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="48"/>
+    </row>
+    <row r="83" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H83" s="48"/>
+    </row>
+    <row r="84" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H84" s="48"/>
+    </row>
+    <row r="85" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H85" s="48"/>
+    </row>
+    <row r="86" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H86" s="48"/>
+    </row>
+    <row r="87" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H87" s="48"/>
+    </row>
+    <row r="88" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H88" s="48"/>
+    </row>
+    <row r="89" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H89" s="48"/>
+    </row>
+    <row r="90" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H90" s="48"/>
+    </row>
+    <row r="91" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H91" s="48"/>
+    </row>
+    <row r="92" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H92" s="48"/>
+    </row>
+    <row r="93" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H93" s="48"/>
+    </row>
+    <row r="94" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H94" s="48"/>
+    </row>
+    <row r="95" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H95" s="48"/>
+    </row>
+    <row r="96" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H96" s="48"/>
+    </row>
+    <row r="97" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H97" s="48"/>
+    </row>
+    <row r="98" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H98" s="48"/>
+    </row>
+    <row r="99" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H99" s="48"/>
+    </row>
+    <row r="100" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H100" s="48"/>
+    </row>
+    <row r="101" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H101" s="48"/>
+    </row>
+    <row r="102" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H102" s="48"/>
+    </row>
+    <row r="103" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H103" s="48"/>
+    </row>
+    <row r="104" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H104" s="48"/>
+    </row>
+    <row r="105" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H105" s="48"/>
+    </row>
+    <row r="106" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H106" s="48"/>
+    </row>
+    <row r="107" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H107" s="48"/>
+    </row>
+    <row r="108" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H108" s="48"/>
+    </row>
+    <row r="109" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H109" s="48"/>
+    </row>
+    <row r="110" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H110" s="48"/>
+    </row>
+    <row r="111" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H111" s="48"/>
+    </row>
+    <row r="112" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H112" s="48"/>
+    </row>
+    <row r="113" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H113" s="48"/>
+    </row>
+    <row r="114" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H114" s="48"/>
+    </row>
+    <row r="115" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H115" s="48"/>
+    </row>
+    <row r="116" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H116" s="48"/>
+    </row>
+    <row r="117" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H117" s="48"/>
+    </row>
+    <row r="118" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H118" s="48"/>
+    </row>
+    <row r="119" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H119" s="48"/>
+    </row>
+    <row r="120" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H120" s="48"/>
+    </row>
+    <row r="121" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H121" s="48"/>
+    </row>
+    <row r="122" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H122" s="48"/>
+    </row>
+    <row r="123" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H123" s="48"/>
+    </row>
+    <row r="124" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H124" s="48"/>
+    </row>
+    <row r="125" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H125" s="48"/>
+    </row>
+    <row r="126" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H126" s="48"/>
+    </row>
+    <row r="127" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H127" s="48"/>
+    </row>
+    <row r="128" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H128" s="48"/>
+    </row>
+    <row r="129" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H129" s="48"/>
+    </row>
+    <row r="130" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H130" s="48"/>
+    </row>
+    <row r="131" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H131" s="48"/>
+    </row>
+    <row r="132" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H132" s="48"/>
+    </row>
+    <row r="133" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H133" s="48"/>
+    </row>
+    <row r="134" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H134" s="48"/>
+    </row>
+    <row r="135" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H135" s="48"/>
+    </row>
+    <row r="136" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H136" s="48"/>
+    </row>
+    <row r="137" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H137" s="48"/>
+    </row>
+    <row r="138" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H138" s="48"/>
+    </row>
+    <row r="139" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H139" s="48"/>
+    </row>
+    <row r="140" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H140" s="48"/>
+    </row>
+    <row r="141" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H141" s="48"/>
+    </row>
+    <row r="142" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H142" s="48"/>
+    </row>
+    <row r="143" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H143" s="48"/>
+    </row>
+    <row r="144" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H144" s="48"/>
+    </row>
+    <row r="145" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H145" s="48"/>
+    </row>
+    <row r="146" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H146" s="48"/>
+    </row>
+    <row r="147" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H147" s="48"/>
+    </row>
+    <row r="148" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H148" s="48"/>
+    </row>
+    <row r="149" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H149" s="48"/>
+    </row>
+    <row r="150" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H150" s="48"/>
+    </row>
+    <row r="151" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H151" s="48"/>
+    </row>
+    <row r="152" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H152" s="48"/>
+    </row>
+    <row r="153" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H153" s="48"/>
+    </row>
+    <row r="154" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H154" s="48"/>
+    </row>
+    <row r="155" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H155" s="48"/>
+    </row>
+    <row r="156" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H156" s="48"/>
+    </row>
+    <row r="157" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H157" s="48"/>
+    </row>
+    <row r="158" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H158" s="48"/>
+    </row>
+    <row r="159" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H159" s="48"/>
+    </row>
+    <row r="160" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H160" s="48"/>
+    </row>
+    <row r="161" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H161" s="48"/>
+    </row>
+    <row r="162" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H162" s="48"/>
+    </row>
+    <row r="163" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H163" s="48"/>
+    </row>
+    <row r="164" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H164" s="48"/>
+    </row>
+    <row r="165" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H165" s="48"/>
+    </row>
+    <row r="166" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H166" s="48"/>
+    </row>
+    <row r="167" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H167" s="48"/>
+    </row>
+    <row r="168" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H168" s="48"/>
+    </row>
+    <row r="169" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H169" s="48"/>
+    </row>
+    <row r="170" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H170" s="48"/>
+    </row>
+    <row r="171" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H171" s="48"/>
+    </row>
+    <row r="172" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H172" s="48"/>
+    </row>
+    <row r="173" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H173" s="48"/>
+    </row>
+    <row r="174" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H174" s="48"/>
+    </row>
+    <row r="175" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H175" s="48"/>
+    </row>
+    <row r="176" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H176" s="48"/>
+    </row>
+    <row r="177" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H177" s="48"/>
+    </row>
+    <row r="178" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H178" s="48"/>
+    </row>
+    <row r="179" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H179" s="48"/>
+    </row>
+    <row r="180" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H180" s="48"/>
+    </row>
+    <row r="181" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H181" s="48"/>
+    </row>
+    <row r="182" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H182" s="48"/>
+    </row>
+    <row r="183" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H183" s="48"/>
+    </row>
+    <row r="184" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H184" s="48"/>
+    </row>
+    <row r="185" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H185" s="48"/>
+    </row>
+    <row r="186" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H186" s="48"/>
+    </row>
+    <row r="187" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H187" s="48"/>
+    </row>
+    <row r="188" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H188" s="48"/>
+    </row>
+    <row r="189" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H189" s="48"/>
+    </row>
+    <row r="190" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H190" s="48"/>
+    </row>
+    <row r="191" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H191" s="48"/>
+    </row>
+    <row r="192" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H192" s="48"/>
+    </row>
+    <row r="193" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H193" s="48"/>
+    </row>
+    <row r="194" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H194" s="48"/>
+    </row>
+    <row r="195" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H195" s="48"/>
+    </row>
+    <row r="196" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H196" s="48"/>
+    </row>
+    <row r="197" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H197" s="48"/>
+    </row>
+    <row r="198" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H198" s="48"/>
+    </row>
+    <row r="199" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H199" s="48"/>
+    </row>
+    <row r="200" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H200" s="48"/>
+    </row>
+    <row r="201" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H201" s="48"/>
+    </row>
+    <row r="202" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H202" s="48"/>
+    </row>
+    <row r="203" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H203" s="48"/>
+    </row>
+    <row r="204" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H204" s="48"/>
+    </row>
+    <row r="205" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H205" s="48"/>
+    </row>
+    <row r="206" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H206" s="48"/>
+    </row>
+    <row r="207" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H207" s="48"/>
+    </row>
+    <row r="208" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H208" s="48"/>
+    </row>
+    <row r="209" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H209" s="48"/>
+    </row>
+    <row r="210" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H210" s="48"/>
+    </row>
+    <row r="211" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H211" s="48"/>
+    </row>
+    <row r="212" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H212" s="48"/>
+    </row>
+    <row r="213" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H213" s="48"/>
+    </row>
+    <row r="214" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H214" s="48"/>
+    </row>
+    <row r="215" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H215" s="48"/>
+    </row>
+    <row r="216" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H216" s="48"/>
+    </row>
+    <row r="217" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H217" s="48"/>
+    </row>
+    <row r="218" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H218" s="48"/>
+    </row>
+    <row r="219" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H219" s="48"/>
+    </row>
+    <row r="220" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H220" s="48"/>
+    </row>
+    <row r="221" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H221" s="48"/>
+    </row>
+    <row r="222" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H222" s="48"/>
+    </row>
+    <row r="223" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H223" s="48"/>
+    </row>
+    <row r="224" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H224" s="48"/>
+    </row>
+    <row r="225" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H225" s="48"/>
+    </row>
+    <row r="226" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H226" s="48"/>
+    </row>
+    <row r="227" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H227" s="48"/>
+    </row>
+    <row r="228" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H228" s="48"/>
+    </row>
+    <row r="229" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H229" s="48"/>
+    </row>
+    <row r="230" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H230" s="48"/>
+    </row>
+    <row r="231" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H231" s="48"/>
+    </row>
+    <row r="232" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H232" s="48"/>
+    </row>
+    <row r="233" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H233" s="48"/>
+    </row>
+    <row r="234" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H234" s="48"/>
+    </row>
+    <row r="235" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H235" s="48"/>
+    </row>
+    <row r="236" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H236" s="48"/>
+    </row>
+    <row r="237" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H237" s="48"/>
+    </row>
+    <row r="238" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H238" s="48"/>
+    </row>
+    <row r="239" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H239" s="48"/>
+    </row>
+    <row r="240" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H240" s="48"/>
+    </row>
+    <row r="241" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H241" s="48"/>
+    </row>
+    <row r="242" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H242" s="48"/>
+    </row>
+    <row r="243" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H243" s="48"/>
+    </row>
+    <row r="244" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H244" s="48"/>
+    </row>
+    <row r="245" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H245" s="48"/>
+    </row>
+    <row r="246" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H246" s="48"/>
+    </row>
+    <row r="247" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H247" s="48"/>
+    </row>
+    <row r="248" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H248" s="48"/>
+    </row>
+    <row r="249" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H249" s="48"/>
+    </row>
+    <row r="250" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H250" s="48"/>
+    </row>
+    <row r="251" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H251" s="48"/>
+    </row>
+    <row r="252" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H252" s="48"/>
+    </row>
+    <row r="253" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H253" s="48"/>
+    </row>
+    <row r="254" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H254" s="48"/>
+    </row>
+    <row r="255" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H255" s="48"/>
+    </row>
+    <row r="256" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H256" s="48"/>
+    </row>
+    <row r="257" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H257" s="48"/>
+    </row>
+    <row r="258" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H258" s="48"/>
+    </row>
+    <row r="259" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H259" s="48"/>
+    </row>
+    <row r="260" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H260" s="48"/>
+    </row>
+    <row r="261" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H261" s="48"/>
+    </row>
+    <row r="262" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H262" s="48"/>
+    </row>
+    <row r="263" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H263" s="48"/>
+    </row>
+    <row r="264" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H264" s="48"/>
+    </row>
+    <row r="265" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H265" s="48"/>
+    </row>
+    <row r="266" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H266" s="48"/>
+    </row>
+    <row r="267" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H267" s="48"/>
+    </row>
+    <row r="268" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H268" s="48"/>
+    </row>
+    <row r="269" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H269" s="48"/>
+    </row>
+    <row r="270" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H270" s="48"/>
+    </row>
+    <row r="271" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H271" s="48"/>
+    </row>
+    <row r="272" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H272" s="48"/>
+    </row>
+    <row r="273" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H273" s="48"/>
+    </row>
+    <row r="274" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H274" s="48"/>
+    </row>
+    <row r="275" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H275" s="48"/>
+    </row>
+    <row r="276" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H276" s="48"/>
+    </row>
+    <row r="277" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H277" s="48"/>
+    </row>
+    <row r="278" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H278" s="48"/>
+    </row>
+    <row r="279" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H279" s="48"/>
+    </row>
+    <row r="280" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H280" s="48"/>
+    </row>
+    <row r="281" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H281" s="48"/>
+    </row>
+    <row r="282" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H282" s="48"/>
+    </row>
+    <row r="283" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H283" s="48"/>
+    </row>
+    <row r="284" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H284" s="48"/>
+    </row>
+    <row r="285" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H285" s="48"/>
+    </row>
+    <row r="286" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H286" s="48"/>
+    </row>
+    <row r="287" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H287" s="48"/>
+    </row>
+    <row r="288" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H288" s="48"/>
+    </row>
+    <row r="289" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H289" s="48"/>
+    </row>
+    <row r="290" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H290" s="48"/>
+    </row>
+    <row r="291" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H291" s="48"/>
+    </row>
+    <row r="292" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H292" s="48"/>
+    </row>
+    <row r="293" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H293" s="48"/>
+    </row>
+    <row r="294" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H294" s="48"/>
+    </row>
+    <row r="295" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H295" s="48"/>
+    </row>
+    <row r="296" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H296" s="48"/>
+    </row>
+    <row r="297" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H297" s="48"/>
+    </row>
+    <row r="298" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H298" s="48"/>
+    </row>
+    <row r="299" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H299" s="48"/>
+    </row>
+    <row r="300" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H300" s="48"/>
+    </row>
+    <row r="301" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H301" s="48"/>
+    </row>
+    <row r="302" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H302" s="48"/>
+    </row>
+    <row r="303" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H303" s="48"/>
+    </row>
+    <row r="304" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H304" s="48"/>
+    </row>
+    <row r="305" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H305" s="48"/>
+    </row>
+    <row r="306" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H306" s="48"/>
+    </row>
+    <row r="307" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H307" s="48"/>
+    </row>
+    <row r="308" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H308" s="48"/>
+    </row>
+    <row r="309" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H309" s="48"/>
+    </row>
+    <row r="310" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H310" s="48"/>
+    </row>
+    <row r="311" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H311" s="48"/>
+    </row>
+    <row r="312" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H312" s="48"/>
+    </row>
+    <row r="313" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H313" s="48"/>
+    </row>
+    <row r="314" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H314" s="48"/>
+    </row>
+    <row r="315" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H315" s="48"/>
+    </row>
+    <row r="316" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H316" s="48"/>
+    </row>
+    <row r="317" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H317" s="48"/>
+    </row>
+    <row r="318" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H318" s="48"/>
+    </row>
+    <row r="319" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H319" s="48"/>
+    </row>
+    <row r="320" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H320" s="48"/>
+    </row>
+    <row r="321" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H321" s="48"/>
+    </row>
+    <row r="322" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H322" s="48"/>
+    </row>
+    <row r="323" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H323" s="48"/>
+    </row>
+    <row r="324" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H324" s="48"/>
+    </row>
+    <row r="325" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H325" s="48"/>
+    </row>
+    <row r="326" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H326" s="48"/>
+    </row>
+    <row r="327" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H327" s="48"/>
+    </row>
+    <row r="328" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H328" s="48"/>
+    </row>
+    <row r="329" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H329" s="48"/>
+    </row>
+    <row r="330" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H330" s="48"/>
+    </row>
+    <row r="331" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H331" s="48"/>
+    </row>
+    <row r="332" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H332" s="48"/>
+    </row>
+    <row r="333" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H333" s="48"/>
+    </row>
+    <row r="334" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H334" s="48"/>
+    </row>
+    <row r="335" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H335" s="48"/>
+    </row>
+    <row r="336" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H336" s="48"/>
+    </row>
+    <row r="337" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H337" s="48"/>
+    </row>
+    <row r="338" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H338" s="48"/>
+    </row>
+    <row r="339" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H339" s="48"/>
+    </row>
+    <row r="340" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H340" s="48"/>
+    </row>
+    <row r="341" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H341" s="48"/>
+    </row>
+    <row r="342" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H342" s="48"/>
+    </row>
+    <row r="343" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H343" s="48"/>
+    </row>
+    <row r="344" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H344" s="48"/>
+    </row>
+    <row r="345" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H345" s="48"/>
+    </row>
+    <row r="346" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H346" s="48"/>
+    </row>
+    <row r="347" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H347" s="48"/>
+    </row>
+    <row r="348" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H348" s="48"/>
+    </row>
+    <row r="349" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H349" s="48"/>
+    </row>
+    <row r="350" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H350" s="48"/>
+    </row>
+    <row r="351" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H351" s="48"/>
+    </row>
+    <row r="352" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H352" s="48"/>
+    </row>
+    <row r="353" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H353" s="48"/>
+    </row>
+    <row r="354" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H354" s="48"/>
+    </row>
+    <row r="355" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H355" s="48"/>
+    </row>
+    <row r="356" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H356" s="48"/>
+    </row>
+    <row r="357" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H357" s="48"/>
+    </row>
+    <row r="358" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H358" s="48"/>
+    </row>
+    <row r="359" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H359" s="48"/>
+    </row>
+    <row r="360" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H360" s="48"/>
+    </row>
+    <row r="361" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H361" s="48"/>
+    </row>
+    <row r="362" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H362" s="48"/>
+    </row>
+    <row r="363" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H363" s="48"/>
+    </row>
+    <row r="364" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H364" s="48"/>
+    </row>
+    <row r="365" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H365" s="48"/>
+    </row>
+    <row r="366" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H366" s="48"/>
+    </row>
+    <row r="367" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H367" s="48"/>
+    </row>
+    <row r="368" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H368" s="48"/>
+    </row>
+    <row r="369" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H369" s="48"/>
+    </row>
+    <row r="370" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H370" s="48"/>
+    </row>
+    <row r="371" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H371" s="48"/>
+    </row>
+    <row r="372" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H372" s="48"/>
+    </row>
+    <row r="373" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H373" s="48"/>
+    </row>
+    <row r="374" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H374" s="48"/>
+    </row>
+    <row r="375" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H375" s="48"/>
+    </row>
+    <row r="376" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H376" s="48"/>
+    </row>
+    <row r="377" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H377" s="48"/>
+    </row>
+    <row r="378" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H378" s="48"/>
+    </row>
+    <row r="379" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H379" s="48"/>
+    </row>
+    <row r="380" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H380" s="48"/>
+    </row>
+    <row r="381" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H381" s="48"/>
+    </row>
+    <row r="382" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H382" s="48"/>
+    </row>
+    <row r="383" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H383" s="48"/>
+    </row>
+    <row r="384" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H384" s="48"/>
+    </row>
+    <row r="385" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H385" s="48"/>
+    </row>
+    <row r="386" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H386" s="48"/>
+    </row>
+    <row r="387" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H387" s="48"/>
+    </row>
+    <row r="388" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H388" s="48"/>
+    </row>
+    <row r="389" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H389" s="48"/>
+    </row>
+    <row r="390" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H390" s="48"/>
+    </row>
+    <row r="391" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H391" s="48"/>
+    </row>
+    <row r="392" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H392" s="48"/>
+    </row>
+    <row r="393" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H393" s="48"/>
+    </row>
+    <row r="394" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H394" s="48"/>
+    </row>
+    <row r="395" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H395" s="48"/>
+    </row>
+    <row r="396" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H396" s="48"/>
+    </row>
+    <row r="397" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H397" s="48"/>
+    </row>
+    <row r="398" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H398" s="48"/>
+    </row>
+    <row r="399" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H399" s="48"/>
+    </row>
+    <row r="400" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H400" s="48"/>
+    </row>
+    <row r="401" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H401" s="48"/>
+    </row>
+    <row r="402" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H402" s="48"/>
+    </row>
+    <row r="403" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H403" s="48"/>
+    </row>
+    <row r="404" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H404" s="48"/>
+    </row>
+    <row r="405" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H405" s="48"/>
+    </row>
+    <row r="406" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H406" s="48"/>
+    </row>
+    <row r="407" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H407" s="48"/>
+    </row>
+    <row r="408" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H408" s="48"/>
+    </row>
+    <row r="409" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H409" s="48"/>
+    </row>
+    <row r="410" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H410" s="48"/>
+    </row>
+    <row r="411" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H411" s="48"/>
+    </row>
+    <row r="412" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H412" s="48"/>
+    </row>
+    <row r="413" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H413" s="48"/>
+    </row>
+    <row r="414" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H414" s="48"/>
+    </row>
+    <row r="415" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H415" s="48"/>
+    </row>
+    <row r="416" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H416" s="48"/>
+    </row>
+    <row r="417" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H417" s="48"/>
+    </row>
+    <row r="418" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H418" s="48"/>
+    </row>
+    <row r="419" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H419" s="48"/>
+    </row>
+    <row r="420" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H420" s="48"/>
+    </row>
+    <row r="421" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H421" s="48"/>
+    </row>
+    <row r="422" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H422" s="48"/>
+    </row>
+    <row r="423" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H423" s="48"/>
+    </row>
+    <row r="424" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H424" s="48"/>
+    </row>
+    <row r="425" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H425" s="48"/>
+    </row>
+    <row r="426" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H426" s="48"/>
+    </row>
+    <row r="427" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H427" s="48"/>
+    </row>
+    <row r="428" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H428" s="48"/>
+    </row>
+    <row r="429" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H429" s="48"/>
+    </row>
+    <row r="430" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H430" s="48"/>
+    </row>
+    <row r="431" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H431" s="48"/>
+    </row>
+    <row r="432" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H432" s="48"/>
+    </row>
+    <row r="433" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H433" s="48"/>
+    </row>
+    <row r="434" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H434" s="48"/>
+    </row>
+    <row r="435" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H435" s="48"/>
+    </row>
+    <row r="436" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H436" s="48"/>
+    </row>
+    <row r="437" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H437" s="48"/>
+    </row>
+    <row r="438" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H438" s="48"/>
+    </row>
+    <row r="439" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H439" s="48"/>
+    </row>
+    <row r="440" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H440" s="48"/>
+    </row>
+    <row r="441" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H441" s="48"/>
+    </row>
+    <row r="442" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H442" s="48"/>
+    </row>
+    <row r="443" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H443" s="48"/>
+    </row>
+    <row r="444" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H444" s="48"/>
+    </row>
+    <row r="445" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H445" s="48"/>
+    </row>
+    <row r="446" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H446" s="48"/>
+    </row>
+    <row r="447" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H447" s="48"/>
+    </row>
+    <row r="448" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H448" s="48"/>
+    </row>
+    <row r="449" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H449" s="48"/>
+    </row>
+    <row r="450" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H450" s="48"/>
+    </row>
+    <row r="451" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H451" s="48"/>
+    </row>
+    <row r="452" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H452" s="48"/>
+    </row>
+    <row r="453" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H453" s="48"/>
+    </row>
+    <row r="454" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H454" s="48"/>
+    </row>
+    <row r="455" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H455" s="48"/>
+    </row>
+    <row r="456" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H456" s="48"/>
+    </row>
+    <row r="457" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H457" s="48"/>
+    </row>
+    <row r="458" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H458" s="48"/>
+    </row>
+    <row r="459" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H459" s="48"/>
+    </row>
+    <row r="460" spans="8:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H460" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
